--- a/outputs/Bettle/gridsearch_results/gridsearch_Decision Tree_results.xlsx
+++ b/outputs/Bettle/gridsearch_results/gridsearch_Decision Tree_results.xlsx
@@ -483,14 +483,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'classifier__criterion': 'gini', 'classifier__max_depth': None, 'classifier__min_samples_leaf': 1, 'classifier__min_samples_split': 2, 'classifier__splitter': 'random', 'scaler': None}</t>
+          <t>{'classifier__criterion': 'gini', 'classifier__max_depth': None, 'classifier__min_samples_leaf': 1, 'classifier__min_samples_split': 2, 'classifier__splitter': 'best', 'scaler': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9577708763999663</v>
+        <v>0.9732050807568878</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05171990255250274</v>
+        <v>0.05358983848622451</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
